--- a/biology/Botanique/Philodendron_giganteum/Philodendron_giganteum.xlsx
+++ b/biology/Botanique/Philodendron_giganteum/Philodendron_giganteum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philodendron giganteum est une espèce de plante épiphyte de la famille des Araceae originaire des Antilles.
 </t>
@@ -511,7 +523,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guadeloupe : Siguine blanche.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur milieu d'origine, les feuilles atteignent 120 cm de longueur, et peuvent dépasser parfois les 150 cm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur milieu d'origine, les feuilles atteignent 120 cm de longueur, et peuvent dépasser parfois les 150 cm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La confusion est possible avec Scindapsus (pothos, liane du diable, etc.), qui est originaire des Îles Salomon, et avec d'autres philodendrons.
 Autre liane originaire d'Amérique centrale, la plante verte d'appartement improprement dénommée philodendron, bien qu'appartenant à la même famille mais d'un genre différent, s'appelle Monstera deliciosa (genre Monstera).</t>
